--- a/src/test/resources/excelData/TestData.xlsx
+++ b/src/test/resources/excelData/TestData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepakarora/tempo/Ruf/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50A39D0-79A7-0342-B169-C8E2DC878EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A2BC5-2675-124A-A7A0-D09A5ABADAB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" activeTab="2" xr2:uid="{132CB232-7CF0-D54E-B13F-A50EB71446F6}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{132CB232-7CF0-D54E-B13F-A50EB71446F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="settings" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="4" r:id="rId1"/>
+    <sheet name="baseline" sheetId="1" r:id="rId2"/>
     <sheet name="suite" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>SheetName</t>
-  </si>
-  <si>
     <t>ExcelName</t>
   </si>
   <si>
@@ -62,29 +59,80 @@
     <t>loginWithValidCredentials</t>
   </si>
   <si>
-    <t>OKI_T512_ios_verify_cancelling_delete_from_inventory</t>
-  </si>
-  <si>
-    <t>OKI_T513_ios_verify_deleting_tool_from_inventory</t>
-  </si>
-  <si>
-    <t>OKI_T2041_ios_settings_validate_one_key_support_link</t>
-  </si>
-  <si>
-    <t>OKI_T2352_ios_settings_validate_1_800_sawdust_link</t>
-  </si>
-  <si>
-    <t>FeatureClass</t>
-  </si>
-  <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>ClassRunMode</t>
+  </si>
+  <si>
+    <t>SuiteName</t>
+  </si>
+  <si>
+    <t>MethodRunMode</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>BaseLineTests</t>
+  </si>
+  <si>
+    <t>SettingsTests</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Run Mode</t>
+  </si>
+  <si>
+    <t>Jira Id</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Run Mode2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Geo Location</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GGN</t>
+  </si>
+  <si>
+    <t>EndOfRows</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>loginWithInValidCredentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,16 +140,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +195,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,33 +562,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F98F5-6698-7640-9155-3CDA9D0D7857}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974CEBD8-A5A7-F744-AD04-C10E014F383A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,13 +705,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -476,95 +725,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5191FF50-505A-E04A-8B90-CCC8B50DB5A6}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -574,35 +744,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FC26F8-1BC7-F348-81D7-FDF3B6808691}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/test/resources/excelData/TestData.xlsx
+++ b/src/test/resources/excelData/TestData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepakarora/tempo/Ruf/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A2BC5-2675-124A-A7A0-D09A5ABADAB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC288965-67E1-7A4F-A8E9-55081188B6C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{132CB232-7CF0-D54E-B13F-A50EB71446F6}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" activeTab="5" xr2:uid="{132CB232-7CF0-D54E-B13F-A50EB71446F6}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="4" r:id="rId1"/>
     <sheet name="baseline" sheetId="1" r:id="rId2"/>
     <sheet name="suite" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="RegressionSuite" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>RunMode</t>
   </si>
@@ -126,13 +129,311 @@
   </si>
   <si>
     <t>loginWithInValidCredentials</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FreshInstall</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Locale</t>
+  </si>
+  <si>
+    <t>Udid</t>
+  </si>
+  <si>
+    <t>IsRealDevice</t>
+  </si>
+  <si>
+    <t>WdaLocalPort</t>
+  </si>
+  <si>
+    <t>WebkitDebugProxyPort</t>
+  </si>
+  <si>
+    <t>en-gb</t>
+  </si>
+  <si>
+    <t>en_GB</t>
+  </si>
+  <si>
+    <t>en-au</t>
+  </si>
+  <si>
+    <t>en_AU</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>DeviceName</t>
+  </si>
+  <si>
+    <t>iPhoneX</t>
+  </si>
+  <si>
+    <t>iPhone6S</t>
+  </si>
+  <si>
+    <t>417a4a9981685bcc05e15d32c5d76879807fe62b</t>
+  </si>
+  <si>
+    <t>2e5a94780943a089d14ce4f47f056e8c505ca4c4</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>vmalik</t>
+  </si>
+  <si>
+    <t>miP4cvma</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>TC00001</t>
+  </si>
+  <si>
+    <t>TC00002</t>
+  </si>
+  <si>
+    <t>TC00003</t>
+  </si>
+  <si>
+    <t>TC00004</t>
+  </si>
+  <si>
+    <t>TC00005</t>
+  </si>
+  <si>
+    <t>TC00006</t>
+  </si>
+  <si>
+    <t>TC00007</t>
+  </si>
+  <si>
+    <t>TC00008</t>
+  </si>
+  <si>
+    <t>TC00009</t>
+  </si>
+  <si>
+    <t>TC00010</t>
+  </si>
+  <si>
+    <t>PrimaryUser</t>
+  </si>
+  <si>
+    <t>SecondaryUser</t>
+  </si>
+  <si>
+    <t>vmalik@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrimaryPassword</t>
+  </si>
+  <si>
+    <t>SecondaryPassword</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Login with valid user</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Add Other Milwaukee Tool</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>2806-20</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Inventory Screen is displayed</t>
+  </si>
+  <si>
+    <t>Tool is displayed at Inventory screen</t>
+  </si>
+  <si>
+    <t>Step Id</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Add Milwaukee One-Key</t>
+  </si>
+  <si>
+    <t>Add Tool via Nearyby</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>Tool Addition</t>
+  </si>
+  <si>
+    <t>Validate login with valid username and password</t>
+  </si>
+  <si>
+    <t>Validate login with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>Validate login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>Validate login with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>vmalik@mailinator.com/miP4cvma</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Inventory screen should be displayed</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Tap on Sign In
+3. Provide valid username
+4. Provide invalid password
+5. Tap on Sign In</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Tap on Sign In
+3. Provide valid username
+4. Provide valid password
+5. Tap on Sign In</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Tap on Sign In
+3. Provide invalid username
+4. Provide valid password
+5. Tap on Sign In</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Tap on Sign In
+3. Provide invalid username
+4. Provide invalid password
+5. Tap on Sign In</t>
+  </si>
+  <si>
+    <t>vmalik@mailinator.com/miP4cvma1</t>
+  </si>
+  <si>
+    <t>vmalik1@mailinator.com/miP4cvma1</t>
+  </si>
+  <si>
+    <t>vmalik1@mailinator.com/miP4cvma</t>
+  </si>
+  <si>
+    <t>Alert appeared with following details: - 
+Title: - Error Signing In
+Message: - The Email Address field or Password field is incorrect.
+Button1: - Ok</t>
+  </si>
+  <si>
+    <t>Admin user login</t>
+  </si>
+  <si>
+    <t>Validate admin user is able to add tool via Other Milwaukee Tool</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>1. Tap on button +
+2. Tap on label Other Milwaukee Tool
+3. Provide model number as search text
+4. Tap on button Search
+5. Tap on model number at search results
+6. Provide desired Serial Number
+7. Select desired Category
+8. Select desired Person
+9. Select desired Division
+10. Select desired Place
+11. Provide Tool Number
+12. Select desired Status
+13. Provide Purchase Information
+14. Select Service Date
+15. Assign Barcode
+16. Tap on button Back
+17. Tap on button Cancel</t>
+  </si>
+  <si>
+    <t>Tool Added at to inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Number: 2806-20
+</t>
+  </si>
+  <si>
+    <t>1. Admin user is logged in and at Inventory screen
+2. Desired category already exists
+3. Desired person already exists
+4. Desired division already exists
+5. Desired place already exists</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +454,28 @@
       <color rgb="FF454545"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -211,10 +534,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -249,8 +573,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F98F5-6698-7640-9155-3CDA9D0D7857}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FC26F8-1BC7-F348-81D7-FDF3B6808691}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -784,7 +1120,612 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F26780-6352-C349-9573-37E0BCDBD74D}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>10004</v>
+      </c>
+      <c r="I2">
+        <v>11004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>10003</v>
+      </c>
+      <c r="I3">
+        <v>11003</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F86654-9431-1C4A-9E4A-04B1E4F1A6EF}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{229170B2-64B0-0041-AB34-5D70ECCED8E3}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{BED4BFDA-C308-1640-9529-A947899FB0D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D3CDC-BAC4-4B41-B596-9254DA4C0CFB}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E4B311EB-C67D-4143-84F4-AB94C7362789}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{147D25F8-7B8D-E547-863D-24E233BA60B3}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{B6402408-83DE-794C-AD62-8FEA297EC7C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>